--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41165.38909955881</v>
+        <v>41514.31786692279</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6058391.215842249</v>
+        <v>6401106.608918771</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22564531.09171689</v>
+        <v>22520352.25318556</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4109911.085906917</v>
+        <v>4111364.720970747</v>
       </c>
     </row>
     <row r="11">
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11455,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -25877,16 +25879,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J46" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K46" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746442</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355432.620666663</v>
+        <v>357949.8462701062</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>53049.64487562134</v>
       </c>
       <c r="D2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="E2" t="n">
         <v>53049.64487562134</v>
@@ -26326,34 +26328,34 @@
         <v>53049.64487562134</v>
       </c>
       <c r="G2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="H2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="I2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="J2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="K2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="L2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="M2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="N2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="O2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="P2" t="n">
-        <v>53049.64487562132</v>
+        <v>57467.52872875459</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>169240.3242525491</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>37134.75141293493</v>
       </c>
       <c r="P4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
     </row>
     <row r="6">
@@ -26525,7 +26527,7 @@
         <v>-17712.70653731358</v>
       </c>
       <c r="D6" t="n">
-        <v>-17712.7065373136</v>
+        <v>-17712.70653731358</v>
       </c>
       <c r="E6" t="n">
         <v>15914.89346268641</v>
@@ -26534,34 +26536,34 @@
         <v>15914.89346268641</v>
       </c>
       <c r="G6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="H6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="I6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="J6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="K6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="L6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="M6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="N6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="O6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="P6" t="n">
-        <v>15914.89346268639</v>
+        <v>-130460.6967443316</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41514.31786692279</v>
+        <v>-84669.10982734995</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6401106.608918771</v>
+        <v>6088006.529022478</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22520352.25318556</v>
+        <v>22558729.53286666</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4111364.720970747</v>
+        <v>4110929.091772992</v>
       </c>
     </row>
     <row r="11">
@@ -8692,25 +8692,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8768,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8853,19 +8853,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M13" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N13" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O13" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P13" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8929,25 +8929,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L14" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O14" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9090,19 +9090,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M16" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N16" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O16" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P16" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9166,25 +9166,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N17" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O17" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P17" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9242,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L18" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O18" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9327,19 +9327,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M19" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N19" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O19" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9403,25 +9403,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L20" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N20" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O20" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P20" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9479,28 +9479,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O21" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9564,19 +9564,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M22" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N22" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O22" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9640,25 +9640,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L23" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N23" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O23" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9716,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L24" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9801,19 +9801,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M25" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N25" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O25" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P25" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9877,25 +9877,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L26" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N26" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O26" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10038,19 +10038,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M28" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N28" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O28" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P28" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10114,25 +10114,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L29" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O29" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P29" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,28 +10190,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10275,19 +10275,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M31" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N31" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O31" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10351,25 +10351,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L32" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N32" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O32" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P32" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10427,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10512,19 +10512,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M34" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N34" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O34" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P34" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10588,25 +10588,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L35" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O35" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P35" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10664,28 +10664,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L36" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10749,19 +10749,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M37" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N37" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O37" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P37" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10825,25 +10825,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L38" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P38" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10901,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10986,19 +10986,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M40" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N40" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O40" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P40" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11062,25 +11062,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O41" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,28 +11138,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11223,19 +11223,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L43" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M43" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O43" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P43" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>89.76036546048012</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>84.55776703287157</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L44" t="n">
-        <v>68.55874285947689</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M44" t="n">
-        <v>45.0952138038613</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N44" t="n">
-        <v>41.28099931752746</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O44" t="n">
-        <v>52.11368889882766</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P44" t="n">
-        <v>78.45608620404292</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q44" t="n">
-        <v>106.3601098520762</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>71.99338681190339</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K45" t="n">
-        <v>46.07750428554137</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L45" t="n">
-        <v>16.33620635813519</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O45" t="n">
-        <v>8.901750057177253</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P45" t="n">
-        <v>26.18458021020076</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q45" t="n">
-        <v>66.6665433882805</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11457,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>72.51491935620855</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>63.34145120781625</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M46" t="n">
-        <v>63.5757640821251</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N46" t="n">
-        <v>54.32560202794129</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O46" t="n">
-        <v>70.18380116939908</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P46" t="n">
-        <v>78.82751991675428</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23272,16 +23272,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23351,13 +23351,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23430,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R13" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S13" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23509,16 +23509,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H14" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23588,13 +23588,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23667,19 +23667,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S16" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T16" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23746,16 +23746,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I17" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23825,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23904,19 +23904,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I19" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J19" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K19" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R19" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S19" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23983,16 +23983,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24062,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24141,19 +24141,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I22" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J22" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K22" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R22" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S22" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24220,16 +24220,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24299,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24378,19 +24378,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I25" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J25" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K25" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24457,16 +24457,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I26" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24536,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I27" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24615,19 +24615,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H28" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I28" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J28" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K28" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S28" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24694,16 +24694,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H29" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I29" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24773,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24852,19 +24852,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H31" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I31" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J31" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K31" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S31" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T31" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24931,16 +24931,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25010,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25089,19 +25089,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I34" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J34" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K34" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R34" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S34" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25168,16 +25168,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25247,13 +25247,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25326,19 +25326,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J37" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K37" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R37" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S37" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T37" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25405,16 +25405,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25484,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25563,19 +25563,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I40" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J40" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K40" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R40" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S40" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T40" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25642,16 +25642,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I41" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25721,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25800,19 +25800,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H43" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I43" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J43" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K43" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25879,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.8325483879333</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H44" t="n">
-        <v>327.6751233740921</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I44" t="n">
-        <v>165.8152863627317</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>77.63898307599939</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S44" t="n">
-        <v>182.5711814737726</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T44" t="n">
-        <v>218.4903622093286</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3959862152726</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.4762758837533</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H45" t="n">
-        <v>105.1802814191576</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I45" t="n">
-        <v>67.67269073688161</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.73707514632421</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S45" t="n">
-        <v>158.8025487711757</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T45" t="n">
-        <v>196.1780027799153</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.431057567854</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H46" t="n">
-        <v>157.5573113517852</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I46" t="n">
-        <v>139.9692581943449</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J46" t="n">
-        <v>56.42067761641638</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.36495098746442</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R46" t="n">
-        <v>152.7739102360676</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S46" t="n">
-        <v>214.366455857413</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T46" t="n">
-        <v>226.3732865346039</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355432.620666663</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357949.8462701062</v>
+        <v>355549.9426156264</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>53049.64487562134</v>
       </c>
       <c r="C2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562131</v>
       </c>
       <c r="D2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="E2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937379</v>
       </c>
       <c r="F2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937378</v>
       </c>
       <c r="G2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937378</v>
       </c>
       <c r="H2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.9911993738</v>
       </c>
       <c r="I2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.9911993738</v>
       </c>
       <c r="J2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937379</v>
       </c>
       <c r="K2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937381</v>
       </c>
       <c r="L2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937379</v>
       </c>
       <c r="M2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.9911993738</v>
       </c>
       <c r="N2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937379</v>
       </c>
       <c r="O2" t="n">
-        <v>53049.64487562134</v>
+        <v>53097.99119937381</v>
       </c>
       <c r="P2" t="n">
-        <v>57467.52872875459</v>
+        <v>53097.99119937379</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1552.355414955019</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>169240.3242525491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>37134.75141293493</v>
       </c>
       <c r="E4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="F4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="G4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="H4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="I4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="J4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="K4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="L4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="M4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="N4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="O4" t="n">
-        <v>37134.75141293493</v>
+        <v>36961.99541938356</v>
       </c>
       <c r="P4" t="n">
-        <v>13144.67389757842</v>
+        <v>36961.99541938356</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
       <c r="P5" t="n">
-        <v>5543.227322958715</v>
+        <v>42.12250644573074</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17712.70653731358</v>
+        <v>-32755.72726512487</v>
       </c>
       <c r="C6" t="n">
-        <v>-17712.70653731358</v>
+        <v>-32755.72726512489</v>
       </c>
       <c r="D6" t="n">
-        <v>-17712.70653731358</v>
+        <v>-32755.72726512488</v>
       </c>
       <c r="E6" t="n">
-        <v>15914.89346268641</v>
+        <v>-496.6682368465481</v>
       </c>
       <c r="F6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.687178108463</v>
       </c>
       <c r="G6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.687178108463</v>
       </c>
       <c r="H6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.687178108477</v>
       </c>
       <c r="I6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.687178108477</v>
       </c>
       <c r="J6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.68717810847</v>
       </c>
       <c r="K6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.687178108485</v>
       </c>
       <c r="L6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.68717810847</v>
       </c>
       <c r="M6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.687178108477</v>
       </c>
       <c r="N6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.68717810847</v>
       </c>
       <c r="O6" t="n">
-        <v>15914.89346268641</v>
+        <v>1055.687178108485</v>
       </c>
       <c r="P6" t="n">
-        <v>-130460.6967443316</v>
+        <v>1055.68717810847</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="P3" t="n">
-        <v>254.2764827045282</v>
+        <v>1.932225066317924</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>254.2764827045282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.6711200968549719</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.053062661143269</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.9888435204957399</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.5305233804728007</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0002734280754223479</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0222170158976</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H44" t="n">
-        <v>10.4687800140613</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I44" t="n">
-        <v>39.40902150539227</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J44" t="n">
-        <v>86.75939145303902</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
-        <v>130.0298377359845</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L44" t="n">
-        <v>161.3135117362607</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M44" t="n">
-        <v>179.4923635927296</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N44" t="n">
-        <v>182.3967376891487</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O44" t="n">
-        <v>172.2320672373169</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P44" t="n">
-        <v>146.9960846573449</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.387937775512</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R44" t="n">
-        <v>64.21183962487768</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S44" t="n">
-        <v>23.29377024976659</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T44" t="n">
-        <v>4.474754987091746</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U44" t="n">
-        <v>0.081777361271808</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H45" t="n">
-        <v>5.282234102975201</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I45" t="n">
-        <v>18.83085272859006</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J45" t="n">
-        <v>51.67329918809664</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K45" t="n">
-        <v>88.31789871445865</v>
+        <v>0.6711200968549718</v>
       </c>
       <c r="L45" t="n">
-        <v>118.7543139272422</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>1.053062661143268</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O45" t="n">
-        <v>130.1295882761561</v>
+        <v>0.9888435204957398</v>
       </c>
       <c r="P45" t="n">
-        <v>104.4404670187712</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.81568634559048</v>
+        <v>0.5305233804728006</v>
       </c>
       <c r="R45" t="n">
-        <v>33.95790461476701</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S45" t="n">
-        <v>10.15906513446865</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T45" t="n">
-        <v>2.204529128353409</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.0002734280754223478</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4585313622540672</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H46" t="n">
-        <v>4.076760657131619</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I46" t="n">
-        <v>13.78928860305868</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J46" t="n">
-        <v>32.41816731136255</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K46" t="n">
-        <v>53.27300736006343</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L46" t="n">
-        <v>68.17110816639106</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M46" t="n">
-        <v>71.87687526678981</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N46" t="n">
-        <v>70.16780382566108</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O46" t="n">
-        <v>64.81132382114764</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P46" t="n">
-        <v>55.45728403116462</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.39574888838376</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R46" t="n">
-        <v>20.61723743371469</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S46" t="n">
-        <v>7.990951104009515</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T46" t="n">
-        <v>1.959179456903741</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0250108015774946</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
